--- a/result/with_base/134/valence/s16_6.xlsx
+++ b/result/with_base/134/valence/s16_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7874999940395355</v>
+        <v>0.75390625</v>
       </c>
       <c r="C2" t="n">
-        <v>41737.400390625</v>
+        <v>11295.6982421875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8363636461171237</v>
+        <v>0.7886685939396129</v>
       </c>
       <c r="E2" t="n">
-        <v>41736.171875</v>
+        <v>11295.16222426471</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8400000035762787</v>
+        <v>0.8286830484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40958.162109375</v>
+        <v>10992.46728515625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.874204548922452</v>
+        <v>0.855895484195036</v>
       </c>
       <c r="E3" t="n">
-        <v>40956.28196022727</v>
+        <v>10991.21765854779</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8650000095367432</v>
+        <v>0.8521205484867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40183.853515625</v>
+        <v>10691.6787109375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9038636359301481</v>
+        <v>0.8912815136068007</v>
       </c>
       <c r="E4" t="n">
-        <v>40183.36008522727</v>
+        <v>10691.28728170956</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8699776828289032</v>
       </c>
       <c r="C5" t="n">
-        <v>39420.720703125</v>
+        <v>10397.53173828125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9373863610354337</v>
+        <v>0.9071691176470589</v>
       </c>
       <c r="E5" t="n">
-        <v>39420.36150568182</v>
+        <v>10396.81215533088</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38669.5078125</v>
+        <v>10109.41943359375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9502272660082037</v>
+        <v>0.929818802020129</v>
       </c>
       <c r="E6" t="n">
-        <v>38669.00674715909</v>
+        <v>10108.68629365809</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.875</v>
       </c>
       <c r="C7" t="n">
-        <v>37929.552734375</v>
+        <v>9827.884765625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9626136367971246</v>
+        <v>0.9342830882352942</v>
       </c>
       <c r="E7" t="n">
-        <v>37928.89630681818</v>
+        <v>9827.000172334559</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37202.146484375</v>
+        <v>9552.5654296875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9672727313908663</v>
+        <v>0.9364495803328121</v>
       </c>
       <c r="E8" t="n">
-        <v>37201.17471590909</v>
+        <v>9551.673655790441</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36486.20703125</v>
+        <v>9283.2490234375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9721590984951366</v>
+        <v>0.957589286215165</v>
       </c>
       <c r="E9" t="n">
-        <v>36485.33913352273</v>
+        <v>9282.725068933823</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C10" t="n">
-        <v>35782.693359375</v>
+        <v>9021.23583984375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9810227426615629</v>
+        <v>0.9545036764705882</v>
       </c>
       <c r="E10" t="n">
-        <v>35781.58274147727</v>
+        <v>9020.688591452206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.94140625</v>
       </c>
       <c r="C11" t="n">
-        <v>35090.751953125</v>
+        <v>8765.41552734375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9864772829142484</v>
+        <v>0.9662552510990816</v>
       </c>
       <c r="E11" t="n">
-        <v>35089.83238636364</v>
+        <v>8764.92520680147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34411.23046875</v>
+        <v>8516.0693359375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9692752115866717</v>
       </c>
       <c r="E12" t="n">
-        <v>34410.32670454546</v>
+        <v>8515.57462086397</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33744.310546875</v>
+        <v>8272.9501953125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9848863753405485</v>
+        <v>0.9785976900773889</v>
       </c>
       <c r="E13" t="n">
-        <v>33742.79403409091</v>
+        <v>8272.419806985294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.88671875</v>
       </c>
       <c r="C14" t="n">
-        <v>33088.484375</v>
+        <v>8036.44287109375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9536502115866717</v>
       </c>
       <c r="E14" t="n">
-        <v>33087.11292613636</v>
+        <v>8035.80704273897</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9375</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C15" t="n">
-        <v>32444.8125</v>
+        <v>7805.060302734375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9794318296692588</v>
+        <v>0.980173317825093</v>
       </c>
       <c r="E15" t="n">
-        <v>32443.484375</v>
+        <v>7804.752613740809</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31812.111328125</v>
+        <v>7580.2587890625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9746586119427401</v>
       </c>
       <c r="E16" t="n">
-        <v>31811.31977982954</v>
+        <v>7579.934742647059</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31191.490234375</v>
+        <v>7361.343017578125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E17" t="n">
-        <v>31190.70791903409</v>
+        <v>7360.949333639706</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9453125</v>
       </c>
       <c r="C18" t="n">
-        <v>30582.546875</v>
+        <v>7147.935791015625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E18" t="n">
-        <v>30581.51846590909</v>
+        <v>7147.501120174632</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29984.212890625</v>
+        <v>6940.353271484375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.976693802020129</v>
       </c>
       <c r="E19" t="n">
-        <v>29983.40749289773</v>
+        <v>6939.823357077206</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29397.810546875</v>
+        <v>6737.8984375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9906118687461404</v>
       </c>
       <c r="E20" t="n">
-        <v>29396.35866477273</v>
+        <v>6737.471880744485</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C21" t="n">
-        <v>28820.9404296875</v>
+        <v>6540.952392578125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9887500080195341</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E21" t="n">
-        <v>28820.09002130682</v>
+        <v>6540.544175091912</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C22" t="n">
-        <v>28255.576171875</v>
+        <v>6349.306884765625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E22" t="n">
-        <v>28254.35919744318</v>
+        <v>6348.877556295956</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27699.7470703125</v>
+        <v>6162.98876953125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.968881302020129</v>
       </c>
       <c r="E23" t="n">
-        <v>27699.20738636364</v>
+        <v>6162.445743336397</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27155.1064453125</v>
+        <v>5981.251220703125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E24" t="n">
-        <v>27154.3359375</v>
+        <v>5980.794634650735</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26620.3388671875</v>
+        <v>5804.343017578125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E25" t="n">
-        <v>26619.642578125</v>
+        <v>5804.069077435662</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C26" t="n">
-        <v>26095.5625</v>
+        <v>5632.457763671875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9964772733775052</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E26" t="n">
-        <v>26094.88618607954</v>
+        <v>5632.146742876838</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25580.45703125</v>
+        <v>5465.182373046875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E27" t="n">
-        <v>25579.85671164773</v>
+        <v>5464.815630744485</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C28" t="n">
-        <v>25074.955078125</v>
+        <v>5302.387451171875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E28" t="n">
-        <v>25074.43519176136</v>
+        <v>5302.014792049632</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.93359375</v>
       </c>
       <c r="C29" t="n">
-        <v>24579.0068359375</v>
+        <v>5144.0576171875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E29" t="n">
-        <v>24578.43430397727</v>
+        <v>5143.64306640625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9375</v>
       </c>
       <c r="C30" t="n">
-        <v>24092.6953125</v>
+        <v>4989.75830078125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E30" t="n">
-        <v>24091.72798295454</v>
+        <v>4989.597053079044</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C31" t="n">
-        <v>23614.505859375</v>
+        <v>4839.9775390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9881827726083643</v>
       </c>
       <c r="E31" t="n">
-        <v>23614.07279829546</v>
+        <v>4839.73477711397</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C32" t="n">
-        <v>23146.005859375</v>
+        <v>4694.216796875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E32" t="n">
-        <v>23145.37428977273</v>
+        <v>4693.958122702206</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22686.142578125</v>
+        <v>4552.408935546875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E33" t="n">
-        <v>22685.46466619318</v>
+        <v>4552.184110753677</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9375</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22234.9189453125</v>
+        <v>4414.562744140625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="E34" t="n">
-        <v>22234.10546875</v>
+        <v>4414.321461397059</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C35" t="n">
-        <v>21791.7626953125</v>
+        <v>4280.56298828125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E35" t="n">
-        <v>21791.22141335227</v>
+        <v>4280.267463235294</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C36" t="n">
-        <v>21357.162109375</v>
+        <v>4150.19482421875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E36" t="n">
-        <v>21356.63707386364</v>
+        <v>4149.952033547794</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20930.9189453125</v>
+        <v>4023.60498046875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9750525215092827</v>
       </c>
       <c r="E37" t="n">
-        <v>20930.23544034091</v>
+        <v>4023.27201573989</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20512.4384765625</v>
+        <v>3900.216186523438</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9814206922755522</v>
       </c>
       <c r="E38" t="n">
-        <v>20511.81729403409</v>
+        <v>3900.060388901654</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C39" t="n">
-        <v>20101.9150390625</v>
+        <v>3780.489624023438</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E39" t="n">
-        <v>20101.296875</v>
+        <v>3780.307976217831</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19698.9345703125</v>
+        <v>3664.15966796875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E40" t="n">
-        <v>19698.47265625</v>
+        <v>3663.926987591912</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C41" t="n">
-        <v>19303.658203125</v>
+        <v>3550.90185546875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E41" t="n">
-        <v>19303.23561789773</v>
+        <v>3550.73189051011</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C42" t="n">
-        <v>18915.9130859375</v>
+        <v>3440.9130859375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9934348744504592</v>
       </c>
       <c r="E42" t="n">
-        <v>18915.41690340909</v>
+        <v>3440.74271886489</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.8777901828289032</v>
       </c>
       <c r="C43" t="n">
-        <v>18535.5087890625</v>
+        <v>3334.36474609375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9482668077244478</v>
       </c>
       <c r="E43" t="n">
-        <v>18534.92276278409</v>
+        <v>3334.039191750919</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18162.048828125</v>
+        <v>3230.307495117188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E44" t="n">
-        <v>18161.59055397727</v>
+        <v>3230.0107421875</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C45" t="n">
-        <v>17796.0498046875</v>
+        <v>3129.376586914062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9701286764705882</v>
       </c>
       <c r="E45" t="n">
-        <v>17795.31924715909</v>
+        <v>3129.139820772059</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17436.5263671875</v>
+        <v>3031.147094726562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E46" t="n">
-        <v>17435.95809659091</v>
+        <v>3031.023466222427</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9375</v>
       </c>
       <c r="C47" t="n">
-        <v>17083.9853515625</v>
+        <v>2935.912231445312</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E47" t="n">
-        <v>17083.41228693182</v>
+        <v>2935.752613740809</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16737.859375</v>
+        <v>2843.33056640625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E48" t="n">
-        <v>16737.50958806818</v>
+        <v>2843.196360868566</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16398.607421875</v>
+        <v>2753.600219726562</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E49" t="n">
-        <v>16398.16779119318</v>
+        <v>2753.36083984375</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16065.63818359375</v>
+        <v>2666.1494140625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9817489490789526</v>
       </c>
       <c r="E50" t="n">
-        <v>16065.20720880682</v>
+        <v>2665.967026654412</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,916 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C51" t="n">
-        <v>15738.884765625</v>
+        <v>2581.308959960938</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9785320373142466</v>
       </c>
       <c r="E51" t="n">
-        <v>15738.55752840909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15418.51806640625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15418.11115056818</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15104.15478515625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15103.72727272727</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14795.6806640625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14795.30015980114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14492.9462890625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14492.74946732955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14196.27294921875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14195.94921875</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13905.01416015625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13904.79092684659</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13619.41748046875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13619.18279474432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13339.3486328125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13339.04616477273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13064.6318359375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13064.2587890625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12795.01171875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12794.70774147727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12530.54638671875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12530.29376775568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12271.1962890625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12270.94451349432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12016.84716796875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12016.56063565341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11767.3447265625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11767.04323508523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11522.49609375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11522.31170099432</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11282.65869140625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11282.30060369318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11047.16650390625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11046.89435369318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10816.20166015625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10816.01731178977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10589.92529296875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10589.59676846591</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10367.77783203125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10367.54838423295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10150.087890625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10149.79057173295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9936.4453125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9936.23819247159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9727.03662109375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9726.813210227272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9521.64794921875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9521.43856534091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9320.3017578125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9320.071732954546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9122.9267578125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9122.604758522728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8929.17431640625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8928.978071732954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8739.29931640625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8739.1240234375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8553.29345703125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8552.985884232954</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8370.64794921875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8370.474165482954</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8378378378378378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8581081081081081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8851351351351351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9054054054054054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9324324324324325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9324324324324325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9594594594594594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9594594594594594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9864864864864865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9864864864864865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9932432432432432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9932432432432432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5869565217391305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6304347826086957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6956521739130435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.006756756756756757</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6956521739130435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.006756756756756757</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9456521739130435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04054054054054054</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9456521739130435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.04054054054054054</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.06756756756756757</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.06756756756756757</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9891304347826086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9891304347826086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9942714453584018</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2581.128647748162</v>
       </c>
     </row>
   </sheetData>
